--- a/Course_Requirements/Activity Logs&Task Summaries/Jesse/Task SummaryWk1.xlsx
+++ b/Course_Requirements/Activity Logs&Task Summaries/Jesse/Task SummaryWk1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\uni\2019\S2-FINAL!!\CSC3600-ICT Professional Project\A3Stuff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesse\Documents\GitHub\CSC3600-ICT-Professional-Project\Course_Requirements\Activity Logs&amp;Task Summaries\Jesse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9EAA8D8-741D-455A-A174-6A7795A7B65E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FC4D22-5D29-4754-805B-B9AB713F9FC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4350" yWindow="2685" windowWidth="21600" windowHeight="11385" xr2:uid="{2C90FF03-35F6-430D-80AA-644AEA31AD14}"/>
+    <workbookView xWindow="41625" yWindow="75" windowWidth="15315" windowHeight="11385" xr2:uid="{2C90FF03-35F6-430D-80AA-644AEA31AD14}"/>
   </bookViews>
   <sheets>
     <sheet name="TASK SUMMARY SHEET" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Task Summary Sheet</t>
   </si>
@@ -79,13 +79,34 @@
   </si>
   <si>
     <t>• "Stage" and "Task" should match those specified in the WBS in project plan</t>
+  </si>
+  <si>
+    <t>Project Planning</t>
+  </si>
+  <si>
+    <t>Proj analysis</t>
+  </si>
+  <si>
+    <t>Project Design/Specifics</t>
+  </si>
+  <si>
+    <t>Develop WBS and Project Schedule</t>
+  </si>
+  <si>
+    <t>Meet with client, gather requirements, discuss and model user tasks</t>
+  </si>
+  <si>
+    <t>Team allocation, Scrum Master allocation</t>
+  </si>
+  <si>
+    <t>Jesse Hare</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,6 +166,12 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -222,7 +249,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -252,9 +279,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -269,6 +293,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -332,7 +362,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
@@ -666,16 +696,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55456C35-CC23-4165-8E5D-73EE1F6F1403}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="45.140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" style="5" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" style="5" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" style="5" customWidth="1"/>
@@ -686,11 +716,15 @@
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7"/>
+      <c r="C1" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="D1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="7"/>
+      <c r="E1" s="7">
+        <v>1</v>
+      </c>
       <c r="F1" s="1"/>
       <c r="H1" s="2"/>
     </row>
@@ -712,127 +746,144 @@
       </c>
     </row>
     <row r="3" spans="1:8" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="A3" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="3">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3">
+        <v>7</v>
+      </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:8" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A4" s="15"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="A4" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>7</v>
+      </c>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:8" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A5" s="15"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="A5" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3">
+        <v>6</v>
+      </c>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:8" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A6" s="15"/>
-      <c r="B6" s="14"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:8" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A7" s="15"/>
-      <c r="B7" s="14"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:8" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A8" s="15"/>
-      <c r="B8" s="14"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:8" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A9" s="15"/>
-      <c r="B9" s="14"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:8" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A10" s="15"/>
-      <c r="B10" s="14"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:8" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A11" s="15"/>
-      <c r="B11" s="14"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:8" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" s="8" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="15"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:8" s="8" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="16"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" s="8" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="6" t="s">
+      <c r="A13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="10" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="18">
-        <f>SUM(D3:D13)</f>
-        <v>0</v>
+      <c r="D13" s="17">
+        <f>SUM(D3:D12)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
         <v>13</v>
       </c>
     </row>
